--- a/frontend_mockups/timelines/Status/WB_TimeLines_Phase_1_v1_2.xlsx
+++ b/frontend_mockups/timelines/Status/WB_TimeLines_Phase_1_v1_2.xlsx
@@ -70,28 +70,28 @@
     <t>PHP - Doctor Listing &amp; Filter</t>
   </si>
   <si>
+    <t>UI - Doctor Data Uploading</t>
+  </si>
+  <si>
+    <t>PHP - Doctor Data Uploalding &amp; processing</t>
+  </si>
+  <si>
+    <t>UI - Player Log Listing &amp; Filter</t>
+  </si>
+  <si>
+    <t>PHP - Player Log Listing &amp; Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI - Player Log Data Uploading </t>
+  </si>
+  <si>
+    <t>PHP - Player Log Data Uploading &amp; Processing</t>
+  </si>
+  <si>
+    <t>UI - Device File Count Listing</t>
+  </si>
+  <si>
     <t>WIP</t>
-  </si>
-  <si>
-    <t>UI - Doctor Data Uploading</t>
-  </si>
-  <si>
-    <t>PHP - Doctor Data Uploalding &amp; processing</t>
-  </si>
-  <si>
-    <t>UI - Player Log Listing &amp; Filter</t>
-  </si>
-  <si>
-    <t>PHP - Player Log Listing &amp; Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI - Player Log Data Uploading </t>
-  </si>
-  <si>
-    <t>PHP - Player Log Data Uploading &amp; Processing</t>
-  </si>
-  <si>
-    <t>UI - Device File Count Listing</t>
   </si>
   <si>
     <t>PHP - Device File Count Listing</t>
@@ -136,11 +136,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -160,7 +160,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,7 +168,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,31 +190,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,48 +271,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,29 +287,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,13 +506,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,72 +595,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,148 +608,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -763,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -772,7 +772,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -787,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1306,7 +1306,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3">
         <v>42835</v>
@@ -1320,7 +1320,7 @@
         <v>2.05</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -1335,94 +1335,127 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>2.06</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3">
         <v>42926</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>2.07</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="3">
         <v>42926</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>2.08</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="3">
         <v>42926</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>2.09</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E16" s="3">
         <v>43018</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>2.1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E17" s="3">
         <v>43018</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>2.11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E18" s="3">
         <v>43049</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>2.12</v>
       </c>
@@ -1432,8 +1465,14 @@
       <c r="C19" s="1">
         <v>5</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1446,6 +1485,9 @@
       <c r="C20" s="1">
         <v>3</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1459,6 +1501,9 @@
       </c>
       <c r="C21" s="1">
         <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>27</v>
